--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1284772.389216668</v>
+        <v>-1287632.221451936</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>150.1450882057752</v>
       </c>
       <c r="E2" t="n">
-        <v>44.99694354040923</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>100.201714663916</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>98.6822606400886</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -756,10 +756,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>35.22803332071679</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>52.21594625443412</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443468</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.6612299361395</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>382.6612299361395</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489922</v>
+        <v>382.6612299361404</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>38.84769303539134</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724321</v>
+        <v>34.66253762724301</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>103.1408266227605</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075471</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>109.8492834251583</v>
       </c>
       <c r="U6" t="n">
-        <v>91.04535809056195</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>43.3213064746127</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3.368533461152691</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16.97761051934354</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>236.4248680558857</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>56.02718650868115</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>146.3347809299337</v>
+        <v>129.0467247590414</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>84.53764171456139</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.84643888006949</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9362388746445</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756229</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187845</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272928</v>
+        <v>196.7867454260318</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238296</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.74735985927553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>11.56087338713362</v>
+        <v>177.0850116794024</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>68.17501931583776</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3554,10 +3554,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3901,13 +3901,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.62914041995077</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="C2" t="n">
-        <v>80.62914041995077</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="D2" t="n">
-        <v>80.62914041995077</v>
+        <v>331.1605361513808</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652801</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487953</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="U2" t="n">
-        <v>459.4687104529205</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="V2" t="n">
-        <v>459.4687104529205</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="W2" t="n">
-        <v>270.0489254364356</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="X2" t="n">
-        <v>80.62914041995077</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="Y2" t="n">
-        <v>80.62914041995077</v>
+        <v>482.8222414097396</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.1385985652324</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="C3" t="n">
-        <v>473.1385985652324</v>
+        <v>575.6493193841516</v>
       </c>
       <c r="D3" t="n">
-        <v>473.1385985652324</v>
+        <v>575.6493193841516</v>
       </c>
       <c r="E3" t="n">
-        <v>313.9011435597769</v>
+        <v>475.9702682325469</v>
       </c>
       <c r="F3" t="n">
-        <v>313.9011435597769</v>
+        <v>329.4357102594319</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>191.896529081881</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>90.03616812153788</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V3" t="n">
-        <v>641.3539355853004</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W3" t="n">
-        <v>641.3539355853004</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X3" t="n">
-        <v>641.3539355853004</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y3" t="n">
-        <v>641.3539355853004</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="C4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="D4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="E4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="F4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="G4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="H4" t="n">
-        <v>697.3589686102956</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="I4" t="n">
-        <v>697.3589686102956</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="J4" t="n">
-        <v>697.3589686102956</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="K4" t="n">
-        <v>697.3589686102956</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992918</v>
+        <v>709.3965921992907</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886973</v>
+        <v>725.346861488696</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7753949309536</v>
+        <v>748.7753949309521</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.3589686102956</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.9275107852246</v>
+        <v>1178.835663567741</v>
       </c>
       <c r="C5" t="n">
-        <v>468.9275107852246</v>
+        <v>809.8731466273293</v>
       </c>
       <c r="D5" t="n">
-        <v>468.9275107852246</v>
+        <v>809.8731466273293</v>
       </c>
       <c r="E5" t="n">
-        <v>468.9275107852246</v>
+        <v>424.0848940290851</v>
       </c>
       <c r="F5" t="n">
-        <v>82.40101590023517</v>
+        <v>417.1393932798816</v>
       </c>
       <c r="G5" t="n">
-        <v>69.85299237003393</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="H5" t="n">
-        <v>69.85299237003393</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121484</v>
+        <v>93.38580827121507</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235843</v>
+        <v>238.2046462235849</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190639</v>
+        <v>454.766982319065</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643083</v>
+        <v>727.4037457643101</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.06586545389</v>
+        <v>1009.065865453893</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831933</v>
+        <v>1261.696156831935</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855776</v>
+        <v>1442.809264855779</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744558</v>
+        <v>1530.644919744562</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.632255474615</v>
+        <v>1495.632255474619</v>
       </c>
       <c r="S5" t="n">
-        <v>1495.632255474615</v>
+        <v>1495.632255474619</v>
       </c>
       <c r="T5" t="n">
-        <v>1495.632255474615</v>
+        <v>1283.018316722045</v>
       </c>
       <c r="U5" t="n">
-        <v>1241.980500555203</v>
+        <v>1283.018316722045</v>
       </c>
       <c r="V5" t="n">
-        <v>1241.980500555203</v>
+        <v>1283.018316722045</v>
       </c>
       <c r="W5" t="n">
-        <v>1241.980500555203</v>
+        <v>1178.835663567741</v>
       </c>
       <c r="X5" t="n">
-        <v>1241.980500555203</v>
+        <v>1178.835663567741</v>
       </c>
       <c r="Y5" t="n">
-        <v>855.454005670214</v>
+        <v>1178.835663567741</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>513.2377923427249</v>
+        <v>266.1227183826905</v>
       </c>
       <c r="C6" t="n">
-        <v>338.7847630615979</v>
+        <v>266.1227183826905</v>
       </c>
       <c r="D6" t="n">
-        <v>189.8503534003466</v>
+        <v>266.1227183826905</v>
       </c>
       <c r="E6" t="n">
-        <v>30.61289839489116</v>
+        <v>266.1227183826905</v>
       </c>
       <c r="F6" t="n">
-        <v>30.61289839489116</v>
+        <v>266.1227183826905</v>
       </c>
       <c r="G6" t="n">
-        <v>30.61289839489116</v>
+        <v>128.948498789593</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275292</v>
+        <v>49.18216652275316</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477047</v>
+        <v>159.0748281477053</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543716</v>
+        <v>353.1616144543725</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642235</v>
+        <v>599.0086077642248</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621745</v>
+        <v>865.7710843621763</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970545</v>
+        <v>1087.586838970548</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422849</v>
+        <v>1246.280471422852</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680487</v>
+        <v>1302.44376568049</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680487</v>
+        <v>1302.44376568049</v>
       </c>
       <c r="S6" t="n">
-        <v>1302.443765680487</v>
+        <v>1302.44376568049</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.443765680487</v>
+        <v>1191.484893533865</v>
       </c>
       <c r="U6" t="n">
-        <v>1210.478757508202</v>
+        <v>963.3636835481677</v>
       </c>
       <c r="V6" t="n">
-        <v>975.3266492764594</v>
+        <v>728.211575316425</v>
       </c>
       <c r="W6" t="n">
-        <v>721.0892925482577</v>
+        <v>473.9742185882233</v>
       </c>
       <c r="X6" t="n">
-        <v>513.2377923427249</v>
+        <v>266.1227183826905</v>
       </c>
       <c r="Y6" t="n">
-        <v>513.2377923427249</v>
+        <v>266.1227183826905</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713246</v>
+        <v>51.49054881713268</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363483</v>
+        <v>108.1125511363487</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055982</v>
+        <v>171.0707966055989</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221352</v>
+        <v>240.3895616221361</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645243</v>
+        <v>284.1035717645254</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354685</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354685</v>
+        <v>258.6875927065681</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354685</v>
+        <v>255.2850336548987</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354685</v>
+        <v>255.2850336548987</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354685</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354685</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="V7" t="n">
-        <v>47.76199992958161</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="W7" t="n">
-        <v>47.76199992958161</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="X7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489116</v>
+        <v>30.61289839489124</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.127537179187</v>
+        <v>674.915947921789</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.127537179187</v>
+        <v>674.915947921789</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.127537179187</v>
+        <v>674.915947921789</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>289.1276953235447</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913352</v>
+        <v>282.1821945743413</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>2111.866709219121</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V8" t="n">
-        <v>2111.866709219121</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W8" t="n">
-        <v>2111.866709219121</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="X8" t="n">
-        <v>2111.866709219121</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.727377243309</v>
+        <v>1061.515787985911</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>660.4702325826747</v>
+        <v>562.6602193536529</v>
       </c>
       <c r="C9" t="n">
-        <v>486.0172033015477</v>
+        <v>388.2071900725259</v>
       </c>
       <c r="D9" t="n">
-        <v>486.0172033015477</v>
+        <v>239.2727804112747</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960922</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835208</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1479.449476804972</v>
+        <v>1635.876820304152</v>
       </c>
       <c r="U9" t="n">
-        <v>1479.449476804972</v>
+        <v>1635.876820304152</v>
       </c>
       <c r="V9" t="n">
-        <v>1244.29736857323</v>
+        <v>1400.724712072409</v>
       </c>
       <c r="W9" t="n">
-        <v>1244.29736857323</v>
+        <v>1146.487355344208</v>
       </c>
       <c r="X9" t="n">
-        <v>1036.445868367697</v>
+        <v>938.6358551386747</v>
       </c>
       <c r="Y9" t="n">
-        <v>828.6855696027428</v>
+        <v>730.8755563737209</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.68308362830388</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="C10" t="n">
-        <v>74.68308362830388</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="D10" t="n">
-        <v>74.68308362830388</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E10" t="n">
-        <v>74.68308362830388</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>74.68308362830388</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514538</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514538</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>298.2869409356803</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>74.68308362830388</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>74.68308362830388</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>74.68308362830388</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>74.68308362830388</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>74.68308362830388</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>74.68308362830388</v>
+        <v>276.6738474079219</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>983.3556038098228</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380886</v>
+        <v>814.4194208819159</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257528</v>
+        <v>664.3027814695802</v>
       </c>
       <c r="E13" t="n">
-        <v>443.8134186433597</v>
+        <v>516.3896878871871</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>369.4997403892767</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041566</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711973</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2248.188593250934</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1959.113366595132</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138365</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.176099401437</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362673</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601574</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>148.6919058973624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,7 +6926,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7549,10 +7549,10 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>204.5379534149077</v>
       </c>
       <c r="E2" t="n">
-        <v>336.9334265318525</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.6526709767524</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988673</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>161.7153815510934</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.48480914828677</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457060097</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>20.61870490125645</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.8372934928192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>205.8445769401546</v>
+        <v>40.32043864788585</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.11969353038613</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-2.217929671413587e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1246147.163652567</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1246147.163652567</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1246147.163652567</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1246147.163652568</v>
+        <v>1246147.163652567</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1246147.163652568</v>
+        <v>1246147.163652567</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1246147.163652568</v>
+        <v>1246147.163652567</v>
       </c>
     </row>
     <row r="12">
@@ -26314,22 +26314,22 @@
         <v>152326.9268048897</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
@@ -26338,7 +26338,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26347,7 +26347,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194636</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996511</v>
+        <v>216004.0468996528</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.511296062</v>
+        <v>167084.5112960598</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742646</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854448</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838289</v>
+        <v>50221.67010838324</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064594</v>
+        <v>59784.02116064542</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969924</v>
+        <v>196327.1528969925</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468115</v>
+        <v>221112.0537468112</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189208</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189206</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189201</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="J4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189196</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189199</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189196</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498548</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498546</v>
+        <v>24037.44323498547</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498545</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790113</v>
+        <v>72511.97598790118</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-692342.9290245619</v>
+        <v>-692703.0120402788</v>
       </c>
       <c r="C6" t="n">
-        <v>-324893.6784149</v>
+        <v>-324893.6784149014</v>
       </c>
       <c r="D6" t="n">
-        <v>-241752.1850213679</v>
+        <v>-241752.185021366</v>
       </c>
       <c r="E6" t="n">
-        <v>-537004.3364398117</v>
+        <v>-537039.074365248</v>
       </c>
       <c r="F6" t="n">
-        <v>64438.87113445226</v>
+        <v>64404.13320901651</v>
       </c>
       <c r="G6" t="n">
-        <v>64438.8711344523</v>
+        <v>64404.13320901612</v>
       </c>
       <c r="H6" t="n">
-        <v>64438.87113445219</v>
+        <v>64404.13320901647</v>
       </c>
       <c r="I6" t="n">
-        <v>64438.87113445225</v>
+        <v>64404.13320901655</v>
       </c>
       <c r="J6" t="n">
-        <v>15373.92640590759</v>
+        <v>15339.18848047203</v>
       </c>
       <c r="K6" t="n">
-        <v>14217.20102606942</v>
+        <v>14182.46310063332</v>
       </c>
       <c r="L6" t="n">
-        <v>-2251.182030083146</v>
+        <v>-2251.182030082724</v>
       </c>
       <c r="M6" t="n">
-        <v>-99613.54142103501</v>
+        <v>-99613.54142103525</v>
       </c>
       <c r="N6" t="n">
         <v>57532.83913056282</v>
       </c>
       <c r="O6" t="n">
-        <v>57532.83913056273</v>
+        <v>57532.8391305627</v>
       </c>
       <c r="P6" t="n">
-        <v>57532.83913056273</v>
+        <v>57532.83913056264</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836624</v>
+        <v>716.4483122836632</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361395</v>
+        <v>382.6612299361404</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707576</v>
+        <v>167.978371370759</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540227</v>
+        <v>137.2623522540209</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698208</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900248</v>
+        <v>159.4537267900228</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698208</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900248</v>
+        <v>159.4537267900225</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698208</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900248</v>
+        <v>159.4537267900228</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>84.24115512946992</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>150.9675459011143</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>58.96281981531234</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27479,7 +27479,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>197.5725538287085</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>101.2177245773855</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716254</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07261172734109778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.21481580557196</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>29.7613133587588</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>309.9780130577769</v>
       </c>
       <c r="I5" t="n">
-        <v>60.58950885937276</v>
+        <v>99.43720189476397</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>143.3876437926213</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>246.1001420946525</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719914109</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075472</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295518</v>
+        <v>46.46465121295512</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238349</v>
+        <v>49.99985954238338</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>84.10397358109077</v>
       </c>
       <c r="U6" t="n">
-        <v>134.7946397952784</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>116.5978353037442</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037904</v>
+        <v>35.65413415037894</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461283</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106942</v>
+        <v>115.8338193495414</v>
       </c>
       <c r="S7" t="n">
         <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074074</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>208.7320448696936</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>175.4458667877411</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>195.0439061854347</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>46.4284373808301</v>
+        <v>63.71649355172238</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>95.29433846737591</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>153.6050622308623</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,22 +28324,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,22 +28378,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.221555270729305e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30274,10 +30274,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235826</v>
+        <v>2.88019422023583</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799017</v>
+        <v>29.4967890579902</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756418</v>
+        <v>111.0386876756419</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997407</v>
+        <v>244.452884199741</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423233</v>
+        <v>366.3715055423237</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098656</v>
+        <v>454.5162494098661</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739844</v>
+        <v>505.736903373985</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022296</v>
+        <v>513.9202552022301</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247595</v>
+        <v>485.2803239247601</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126875</v>
+        <v>414.1755291126879</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004918</v>
+        <v>311.0285736004922</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868889</v>
+        <v>180.9230001868891</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362397</v>
+        <v>65.63242579362404</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908234</v>
+        <v>12.60805019908235</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188661</v>
+        <v>0.2304155376188663</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044104</v>
+        <v>1.541039766044106</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574174</v>
+        <v>14.88319984574176</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704482</v>
+        <v>53.05772878704488</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594564</v>
+        <v>145.5944631594565</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844113</v>
+        <v>248.8441274844116</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754973</v>
+        <v>334.6016386754977</v>
       </c>
       <c r="M6" t="n">
-        <v>390.464330194596</v>
+        <v>390.4643301945964</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519707</v>
+        <v>400.7987591519712</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306777</v>
+        <v>366.6525622306781</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510009</v>
+        <v>294.2710058510012</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462614</v>
+        <v>196.7123743462617</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158046</v>
+        <v>95.67964442158058</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963498</v>
+        <v>28.62413775963502</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572505</v>
+        <v>6.211471688572511</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344806</v>
+        <v>0.1013841951344807</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970539</v>
+        <v>1.29195597297054</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513807</v>
+        <v>11.48666310513808</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351403</v>
+        <v>38.85263962351407</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901707</v>
+        <v>91.34128728901717</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505771</v>
+        <v>150.1017939505772</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178199</v>
+        <v>192.0786180178201</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902818</v>
+        <v>202.519971290282</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273917</v>
+        <v>197.704499027392</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522358</v>
+        <v>182.612104252236</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036367</v>
+        <v>156.2562024036369</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.183695154833</v>
+        <v>108.1836951548331</v>
       </c>
       <c r="R7" t="n">
-        <v>58.0910385664753</v>
+        <v>58.09103856647536</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258656</v>
+        <v>22.51526909258659</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874118</v>
+        <v>5.520175520874124</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0704703257983931</v>
+        <v>0.07047032579839317</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305442</v>
+        <v>63.40697967305471</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973427</v>
+        <v>146.2816544973432</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398783</v>
+        <v>218.7498344398788</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467117</v>
+        <v>275.3906701467123</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056386</v>
+        <v>284.5071916056392</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030728</v>
+        <v>255.1821125030733</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574179</v>
+        <v>182.9425333574184</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604234</v>
+        <v>88.72288372604268</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278966</v>
+        <v>18.75683649278983</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100523</v>
+        <v>111.0026885100526</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956231</v>
+        <v>196.0472588956235</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725776</v>
+        <v>248.3302962725781</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686374</v>
+        <v>269.4570470686378</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862333</v>
+        <v>224.0563177862336</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366706</v>
+        <v>160.296598436671</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023992</v>
+        <v>56.73060026024015</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004172</v>
+        <v>21.08853578004187</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658165</v>
+        <v>57.19394173658185</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267672</v>
+        <v>63.59418734267695</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215854</v>
+        <v>70.01895456215877</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039305</v>
+        <v>44.15556580039325</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448909</v>
+        <v>18.52819835448929</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
